--- a/natmiOut/OldD0/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.0356025484387</v>
+        <v>34.582962</v>
       </c>
       <c r="H2">
-        <v>26.0356025484387</v>
+        <v>103.748886</v>
       </c>
       <c r="I2">
-        <v>0.7986004462507409</v>
+        <v>0.8305266248561333</v>
       </c>
       <c r="J2">
-        <v>0.7986004462507409</v>
+        <v>0.8305266248561333</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08305618975619</v>
+        <v>2.324764666666667</v>
       </c>
       <c r="N2">
-        <v>2.08305618975619</v>
+        <v>6.974294</v>
       </c>
       <c r="O2">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638302</v>
       </c>
       <c r="P2">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638301</v>
       </c>
       <c r="Q2">
-        <v>54.23362304255726</v>
+        <v>80.39724812627601</v>
       </c>
       <c r="R2">
-        <v>54.23362304255726</v>
+        <v>723.575233136484</v>
       </c>
       <c r="S2">
-        <v>0.03223812525400472</v>
+        <v>0.03715712998451925</v>
       </c>
       <c r="T2">
-        <v>0.03223812525400472</v>
+        <v>0.03715712998451924</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.0356025484387</v>
+        <v>34.582962</v>
       </c>
       <c r="H3">
-        <v>26.0356025484387</v>
+        <v>103.748886</v>
       </c>
       <c r="I3">
-        <v>0.7986004462507409</v>
+        <v>0.8305266248561333</v>
       </c>
       <c r="J3">
-        <v>0.7986004462507409</v>
+        <v>0.8305266248561333</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.2737616600021</v>
+        <v>19.27491966666667</v>
       </c>
       <c r="N3">
-        <v>19.2737616600021</v>
+        <v>57.824759</v>
       </c>
       <c r="O3">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842666</v>
       </c>
       <c r="P3">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842665</v>
       </c>
       <c r="Q3">
-        <v>501.8039981931508</v>
+        <v>666.5838143853859</v>
       </c>
       <c r="R3">
-        <v>501.8039981931508</v>
+        <v>5999.254329468474</v>
       </c>
       <c r="S3">
-        <v>0.2982876532887513</v>
+        <v>0.3080744927710961</v>
       </c>
       <c r="T3">
-        <v>0.2982876532887513</v>
+        <v>0.3080744927710961</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.0356025484387</v>
+        <v>34.582962</v>
       </c>
       <c r="H4">
-        <v>26.0356025484387</v>
+        <v>103.748886</v>
       </c>
       <c r="I4">
-        <v>0.7986004462507409</v>
+        <v>0.8305266248561333</v>
       </c>
       <c r="J4">
-        <v>0.7986004462507409</v>
+        <v>0.8305266248561333</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.2444954895778</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N4">
-        <v>30.2444954895778</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O4">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="P4">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="Q4">
-        <v>787.4336638446946</v>
+        <v>1050.03757595305</v>
       </c>
       <c r="R4">
-        <v>787.4336638446946</v>
+        <v>9450.338183577451</v>
       </c>
       <c r="S4">
-        <v>0.4680746677079849</v>
+        <v>0.485295002100518</v>
       </c>
       <c r="T4">
-        <v>0.4680746677079849</v>
+        <v>0.485295002100518</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.3321377617589</v>
+        <v>4.670847666666667</v>
       </c>
       <c r="H5">
-        <v>4.3321377617589</v>
+        <v>14.012543</v>
       </c>
       <c r="I5">
-        <v>0.1328813935964701</v>
+        <v>0.1121726747354322</v>
       </c>
       <c r="J5">
-        <v>0.1328813935964701</v>
+        <v>0.1121726747354322</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.08305618975619</v>
+        <v>2.324764666666667</v>
       </c>
       <c r="N5">
-        <v>2.08305618975619</v>
+        <v>6.974294</v>
       </c>
       <c r="O5">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638302</v>
       </c>
       <c r="P5">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638301</v>
       </c>
       <c r="Q5">
-        <v>9.024086379508402</v>
+        <v>10.85862161884911</v>
       </c>
       <c r="R5">
-        <v>9.024086379508402</v>
+        <v>97.72759456964201</v>
       </c>
       <c r="S5">
-        <v>0.00536419310908409</v>
+        <v>0.005018520214902985</v>
       </c>
       <c r="T5">
-        <v>0.00536419310908409</v>
+        <v>0.005018520214902985</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.3321377617589</v>
+        <v>4.670847666666667</v>
       </c>
       <c r="H6">
-        <v>4.3321377617589</v>
+        <v>14.012543</v>
       </c>
       <c r="I6">
-        <v>0.1328813935964701</v>
+        <v>0.1121726747354322</v>
       </c>
       <c r="J6">
-        <v>0.1328813935964701</v>
+        <v>0.1121726747354322</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.2737616600021</v>
+        <v>19.27491966666667</v>
       </c>
       <c r="N6">
-        <v>19.2737616600021</v>
+        <v>57.824759</v>
       </c>
       <c r="O6">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842666</v>
       </c>
       <c r="P6">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842665</v>
       </c>
       <c r="Q6">
-        <v>83.49659069843599</v>
+        <v>90.03021355023745</v>
       </c>
       <c r="R6">
-        <v>83.49659069843599</v>
+        <v>810.2719219521371</v>
       </c>
       <c r="S6">
-        <v>0.04963292876646473</v>
+        <v>0.04160918968477573</v>
       </c>
       <c r="T6">
-        <v>0.04963292876646473</v>
+        <v>0.04160918968477573</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.3321377617589</v>
+        <v>4.670847666666667</v>
       </c>
       <c r="H7">
-        <v>4.3321377617589</v>
+        <v>14.012543</v>
       </c>
       <c r="I7">
-        <v>0.1328813935964701</v>
+        <v>0.1121726747354322</v>
       </c>
       <c r="J7">
-        <v>0.1328813935964701</v>
+        <v>0.1121726747354322</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.2444954895778</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N7">
-        <v>30.2444954895778</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O7">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="P7">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="Q7">
-        <v>131.0233209957467</v>
+        <v>141.8202859995806</v>
       </c>
       <c r="R7">
-        <v>131.0233209957467</v>
+        <v>1276.382573996225</v>
       </c>
       <c r="S7">
-        <v>0.0778842717209213</v>
+        <v>0.06554496483575349</v>
       </c>
       <c r="T7">
-        <v>0.0778842717209213</v>
+        <v>0.06554496483575351</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.23379738073447</v>
+        <v>2.385989666666667</v>
       </c>
       <c r="H8">
-        <v>2.23379738073447</v>
+        <v>7.157969</v>
       </c>
       <c r="I8">
-        <v>0.068518160152789</v>
+        <v>0.05730070040843456</v>
       </c>
       <c r="J8">
-        <v>0.068518160152789</v>
+        <v>0.05730070040843457</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08305618975619</v>
+        <v>2.324764666666667</v>
       </c>
       <c r="N8">
-        <v>2.08305618975619</v>
+        <v>6.974294</v>
       </c>
       <c r="O8">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638302</v>
       </c>
       <c r="P8">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638301</v>
       </c>
       <c r="Q8">
-        <v>4.653125460600102</v>
+        <v>5.546864472098445</v>
       </c>
       <c r="R8">
-        <v>4.653125460600102</v>
+        <v>49.921780248886</v>
       </c>
       <c r="S8">
-        <v>0.002765960173889043</v>
+        <v>0.002563589786960789</v>
       </c>
       <c r="T8">
-        <v>0.002765960173889043</v>
+        <v>0.002563589786960789</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.23379738073447</v>
+        <v>2.385989666666667</v>
       </c>
       <c r="H9">
-        <v>2.23379738073447</v>
+        <v>7.157969</v>
       </c>
       <c r="I9">
-        <v>0.068518160152789</v>
+        <v>0.05730070040843456</v>
       </c>
       <c r="J9">
-        <v>0.068518160152789</v>
+        <v>0.05730070040843457</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.2737616600021</v>
+        <v>19.27491966666667</v>
       </c>
       <c r="N9">
-        <v>19.2737616600021</v>
+        <v>57.824759</v>
       </c>
       <c r="O9">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842666</v>
       </c>
       <c r="P9">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842665</v>
       </c>
       <c r="Q9">
-        <v>43.05367831301315</v>
+        <v>45.98975915049677</v>
       </c>
       <c r="R9">
-        <v>43.05367831301315</v>
+        <v>413.907832354471</v>
       </c>
       <c r="S9">
-        <v>0.02559242396569009</v>
+        <v>0.02125504912839478</v>
       </c>
       <c r="T9">
-        <v>0.02559242396569009</v>
+        <v>0.02125504912839478</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.23379738073447</v>
+        <v>2.385989666666667</v>
       </c>
       <c r="H10">
-        <v>2.23379738073447</v>
+        <v>7.157969</v>
       </c>
       <c r="I10">
-        <v>0.068518160152789</v>
+        <v>0.05730070040843456</v>
       </c>
       <c r="J10">
-        <v>0.068518160152789</v>
+        <v>0.05730070040843457</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.2444954895778</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N10">
-        <v>30.2444954895778</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O10">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="P10">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="Q10">
-        <v>67.56007480625439</v>
+        <v>72.44546623379723</v>
       </c>
       <c r="R10">
-        <v>67.56007480625439</v>
+        <v>652.009196104175</v>
       </c>
       <c r="S10">
-        <v>0.04015977601320988</v>
+        <v>0.03348206149307899</v>
       </c>
       <c r="T10">
-        <v>0.04015977601320988</v>
+        <v>0.03348206149307899</v>
       </c>
     </row>
   </sheetData>
